--- a/upload/nyso_data_import.xlsx
+++ b/upload/nyso_data_import.xlsx
@@ -13,8 +13,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>wotiger</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wotiger:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+自动从线上同步没有填写的信息</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>version 1.00</t>
   </si>
@@ -22,10 +54,13 @@
     <t>brand</t>
   </si>
   <si>
+    <t>supplier_id</t>
+  </si>
+  <si>
     <t>sku_no</t>
   </si>
   <si>
-    <t>online_syn</t>
+    <t>auto_syn</t>
   </si>
   <si>
     <t>goods_no</t>
@@ -94,10 +129,13 @@
     <t>品牌名</t>
   </si>
   <si>
-    <t>SKU编号</t>
-  </si>
-  <si>
-    <t>在线同步</t>
+    <t>供应商ID</t>
+  </si>
+  <si>
+    <t>供应商货号</t>
+  </si>
+  <si>
+    <t>自动同步</t>
   </si>
   <si>
     <t>商品JAN编码</t>
@@ -161,6 +199,12 @@
   </si>
   <si>
     <t>推荐商品</t>
+  </si>
+  <si>
+    <t>FAN5852</t>
+  </si>
+  <si>
+    <t>MUJ8358</t>
   </si>
 </sst>
 </file>
@@ -168,11 +212,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -202,6 +246,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -209,6 +298,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -218,23 +321,40 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,99 +368,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,25 +399,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,157 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,6 +590,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,17 +623,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,15 +647,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -623,15 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -651,148 +695,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -803,7 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -815,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1139,32 +1183,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1296296296296" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.1296296296296" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.1296296296296" customWidth="1"/>
-    <col min="18" max="18" width="10.1296296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1296296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="18.1296296296296" customWidth="1"/>
+    <col min="16" max="16" width="14.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="10.1296296296296" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16.4444444444444" customWidth="1"/>
+    <col min="21" max="21" width="10.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:18">
+    <row r="1" customFormat="1" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1173,25 +1222,26 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="R1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="S1" s="3"/>
     </row>
-    <row r="2" customFormat="1" spans="1:24">
+    <row r="2" customFormat="1" spans="1:25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1224,13 +1274,13 @@
       <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="T2" t="s">
@@ -1248,88 +1298,112 @@
       <c r="X2" t="s">
         <v>24</v>
       </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" spans="1:24">
+    <row r="3" customFormat="1" spans="1:25">
       <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S3" t="s">
+      <c r="R3" t="s">
         <v>43</v>
       </c>
+      <c r="S3" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
       <c r="W3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="1">
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>